--- a/Class Table of Contents/Bis15L_TableofContents.xlsx
+++ b/Class Table of Contents/Bis15L_TableofContents.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\starf\Documents\GitHub\BIS15W2021_ahearne\midterm2\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\starf\Documents\GitHub\BIS15W2021_ahearne\Class Table of Contents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05A903BC-7BDD-404F-9DC3-719C47D4DF67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE471C5-6A5D-4DBC-9816-AD4A43963507}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33735" yWindow="8625" windowWidth="7500" windowHeight="6000" xr2:uid="{F0074603-967E-4CEC-B480-78C4E76A63EE}"/>
+    <workbookView xWindow="3465" yWindow="2565" windowWidth="15360" windowHeight="17280" xr2:uid="{F0074603-967E-4CEC-B480-78C4E76A63EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -838,7 +838,7 @@
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,19 +853,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="4" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1394,7 +1394,7 @@
       <c r="A39">
         <v>6</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="1">
         <v>6.2</v>
       </c>
       <c r="C39" s="3" t="s">
@@ -1600,12 +1600,13 @@
     <hyperlink ref="I39" r:id="rId37" xr:uid="{252D1463-5F5B-4A49-8F2C-3BC4DABA08DE}"/>
     <hyperlink ref="I38" r:id="rId38" xr:uid="{17DD40C6-DF27-4515-B18F-6B22EF4F1F7A}"/>
     <hyperlink ref="G46" r:id="rId39" display="https://jmledford3115.github.io/datascibiol/lab11_2.html" xr:uid="{A7F94B75-C24F-4BF4-93E3-85D0AF021560}"/>
+    <hyperlink ref="B39" r:id="rId40" display="https://jmledford3115.github.io/datascibiol/lab6_2.html" xr:uid="{D099F0DA-2B93-452F-B7AD-49FED5CE2A85}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId40"/>
+  <pageSetup orientation="portrait" r:id="rId41"/>
   <tableParts count="2">
-    <tablePart r:id="rId41"/>
     <tablePart r:id="rId42"/>
+    <tablePart r:id="rId43"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Class Table of Contents/Bis15L_TableofContents.xlsx
+++ b/Class Table of Contents/Bis15L_TableofContents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\starf\Documents\GitHub\BIS15W2021_ahearne\Class Table of Contents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE471C5-6A5D-4DBC-9816-AD4A43963507}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470CE7A0-1CE1-4737-BF35-150EE83E5E57}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3465" yWindow="2565" windowWidth="15360" windowHeight="17280" xr2:uid="{F0074603-967E-4CEC-B480-78C4E76A63EE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="119">
   <si>
     <t>Lab</t>
   </si>
@@ -388,6 +388,9 @@
   </si>
   <si>
     <t>RcolorBrewer</t>
+  </si>
+  <si>
+    <t>rename()</t>
   </si>
 </sst>
 </file>
@@ -513,8 +516,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4AEE17D0-42B9-4EE0-A147-EFC6D95743EE}" name="Table1" displayName="Table1" ref="A2:D47" totalsRowShown="0">
-  <autoFilter ref="A2:D47" xr:uid="{0F1115E1-9421-4781-A8DD-750A8591DC75}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4AEE17D0-42B9-4EE0-A147-EFC6D95743EE}" name="Table1" displayName="Table1" ref="A2:D48" totalsRowShown="0">
+  <autoFilter ref="A2:D48" xr:uid="{0F1115E1-9421-4781-A8DD-750A8591DC75}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{9A31F657-CD4F-45CD-A048-41B692F15D06}" name="Week"/>
     <tableColumn id="2" xr3:uid="{31D1EB04-9E3E-40F5-91B8-41A6CA6DC88D}" name="Lab"/>
@@ -837,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE726E1A-8AE3-410A-8B3D-A79229A65B00}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1164,7 +1167,7 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="1" t="s">
@@ -1173,7 +1176,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="3"/>
@@ -1183,7 +1186,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="1" t="s">
@@ -1191,17 +1194,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>4</v>
-      </c>
-      <c r="B24" s="1">
-        <v>4.2</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" t="s">
@@ -1209,8 +1203,17 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F25">
         <v>10</v>
@@ -1227,7 +1230,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" t="s">
@@ -1235,17 +1238,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>5</v>
-      </c>
-      <c r="B27" s="1">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="D27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" t="s">
@@ -1253,8 +1247,17 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="3"/>
@@ -1264,7 +1267,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" t="s">
@@ -1273,7 +1276,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" t="s">
@@ -1282,7 +1285,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F31">
         <v>10</v>
@@ -1298,17 +1301,8 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>5</v>
-      </c>
-      <c r="B32" s="1">
-        <v>5.2</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>41</v>
+      <c r="D32" t="s">
+        <v>39</v>
       </c>
       <c r="E32" s="1"/>
       <c r="H32" s="3"/>
@@ -1317,8 +1311,17 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
-        <v>42</v>
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="3"/>
@@ -1328,7 +1331,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" t="s">
@@ -1336,17 +1339,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>6</v>
-      </c>
-      <c r="B35" s="1">
-        <v>6.1</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>48</v>
+      <c r="D35" t="s">
+        <v>43</v>
       </c>
       <c r="E35" s="1"/>
       <c r="H35" s="3"/>
@@ -1355,8 +1349,17 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
-        <v>45</v>
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="B36" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="3"/>
@@ -1366,7 +1369,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" t="s">
@@ -1375,7 +1378,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F38">
         <v>11</v>
@@ -1391,17 +1394,8 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>6</v>
-      </c>
-      <c r="B39" s="1">
-        <v>6.2</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="D39" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="1" t="s">
@@ -1409,8 +1403,17 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>6</v>
+      </c>
+      <c r="B40" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="D40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="1" t="s">
@@ -1419,7 +1422,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="1" t="s">
@@ -1428,7 +1431,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" t="s">
@@ -1436,17 +1439,8 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>7</v>
-      </c>
-      <c r="B43" s="1">
-        <v>7.1</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="D43" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" t="s">
@@ -1454,8 +1448,17 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>7</v>
+      </c>
+      <c r="B44" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="D44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="3"/>
@@ -1465,7 +1468,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" t="s">
@@ -1474,7 +1477,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F46">
         <v>11</v>
@@ -1491,7 +1494,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" t="s">
@@ -1499,6 +1502,9 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>60</v>
+      </c>
       <c r="H48" s="3"/>
       <c r="I48" t="s">
         <v>117</v>
@@ -1568,11 +1574,11 @@
     <hyperlink ref="B15" r:id="rId5" display="https://jmledford3115.github.io/datascibiol/lab3_1.html" xr:uid="{3F805A7C-A016-419A-976C-4030AFB4DF80}"/>
     <hyperlink ref="B18" r:id="rId6" display="https://jmledford3115.github.io/datascibiol/lab3_2.html" xr:uid="{5219B569-1788-4577-9733-34AD105623D0}"/>
     <hyperlink ref="B21" r:id="rId7" display="https://jmledford3115.github.io/datascibiol/lab4_1.html" xr:uid="{667DAB3B-7EDE-49C3-8F0E-FB80DD83F914}"/>
-    <hyperlink ref="B24" r:id="rId8" display="https://jmledford3115.github.io/datascibiol/lab4_2.html" xr:uid="{968339BF-7802-4597-B1FC-752D65E1E875}"/>
-    <hyperlink ref="B27" r:id="rId9" display="https://jmledford3115.github.io/datascibiol/lab5_1.html" xr:uid="{DF38B423-58FD-4199-AF32-B71B517483F5}"/>
-    <hyperlink ref="B32" r:id="rId10" display="https://jmledford3115.github.io/datascibiol/lab5_2.html" xr:uid="{939AAC66-D042-4FB9-A87B-9349D211BED6}"/>
-    <hyperlink ref="B35" r:id="rId11" display="https://jmledford3115.github.io/datascibiol/lab6_1.html" xr:uid="{141480E9-A606-40ED-9938-7DD4DFE33D64}"/>
-    <hyperlink ref="B43" r:id="rId12" display="https://jmledford3115.github.io/datascibiol/lab7_1.html" xr:uid="{A06070E2-7512-47E0-820F-F0E94BC19A9F}"/>
+    <hyperlink ref="B25" r:id="rId8" display="https://jmledford3115.github.io/datascibiol/lab4_2.html" xr:uid="{968339BF-7802-4597-B1FC-752D65E1E875}"/>
+    <hyperlink ref="B28" r:id="rId9" display="https://jmledford3115.github.io/datascibiol/lab5_1.html" xr:uid="{DF38B423-58FD-4199-AF32-B71B517483F5}"/>
+    <hyperlink ref="B33" r:id="rId10" display="https://jmledford3115.github.io/datascibiol/lab5_2.html" xr:uid="{939AAC66-D042-4FB9-A87B-9349D211BED6}"/>
+    <hyperlink ref="B36" r:id="rId11" display="https://jmledford3115.github.io/datascibiol/lab6_1.html" xr:uid="{141480E9-A606-40ED-9938-7DD4DFE33D64}"/>
+    <hyperlink ref="B44" r:id="rId12" display="https://jmledford3115.github.io/datascibiol/lab7_1.html" xr:uid="{A06070E2-7512-47E0-820F-F0E94BC19A9F}"/>
     <hyperlink ref="G3" r:id="rId13" display="https://jmledford3115.github.io/datascibiol/lab1_1.html" xr:uid="{35AC4512-726B-48C2-9C19-387A52184BA0}"/>
     <hyperlink ref="G10" r:id="rId14" display="https://jmledford3115.github.io/datascibiol/lab8_2.html" xr:uid="{BCB0B6F1-FE19-4399-B3D8-49F71D901BF9}"/>
     <hyperlink ref="G7" r:id="rId15" display="https://jmledford3115.github.io/datascibiol/lab8_1.html" xr:uid="{8A251D6B-A0E0-4D28-857D-CDDC4B12F6F2}"/>
@@ -1583,8 +1589,8 @@
     <hyperlink ref="I13" r:id="rId20" xr:uid="{94B465DD-F52A-47B4-8D20-4D27C7A55F0D}"/>
     <hyperlink ref="I11" r:id="rId21" xr:uid="{0CDDB42C-C66D-4298-B5F0-0C1AA8F099D8}"/>
     <hyperlink ref="I3" r:id="rId22" xr:uid="{15458106-840F-45C3-BA93-291F3C42AEF6}"/>
-    <hyperlink ref="D32" r:id="rId23" xr:uid="{0162ABDA-B5E8-4B07-B53A-D797AF7C11A8}"/>
-    <hyperlink ref="D35" r:id="rId24" xr:uid="{F5EACE22-91FC-49A2-AC8F-B71D3A311EAC}"/>
+    <hyperlink ref="D33" r:id="rId23" xr:uid="{0162ABDA-B5E8-4B07-B53A-D797AF7C11A8}"/>
+    <hyperlink ref="D36" r:id="rId24" xr:uid="{F5EACE22-91FC-49A2-AC8F-B71D3A311EAC}"/>
     <hyperlink ref="G15" r:id="rId25" display="https://jmledford3115.github.io/datascibiol/lab9_1.html" xr:uid="{A44B1C3E-236E-424E-A2A5-37834587A410}"/>
     <hyperlink ref="I15" r:id="rId26" xr:uid="{8B742F2E-1696-4822-AE95-DCA3DC8271B7}"/>
     <hyperlink ref="G20" r:id="rId27" display="https://jmledford3115.github.io/datascibiol/lab9_2.html" xr:uid="{AED939C1-935D-4E76-8C36-7D82E83E64E4}"/>
@@ -1600,7 +1606,7 @@
     <hyperlink ref="I39" r:id="rId37" xr:uid="{252D1463-5F5B-4A49-8F2C-3BC4DABA08DE}"/>
     <hyperlink ref="I38" r:id="rId38" xr:uid="{17DD40C6-DF27-4515-B18F-6B22EF4F1F7A}"/>
     <hyperlink ref="G46" r:id="rId39" display="https://jmledford3115.github.io/datascibiol/lab11_2.html" xr:uid="{A7F94B75-C24F-4BF4-93E3-85D0AF021560}"/>
-    <hyperlink ref="B39" r:id="rId40" display="https://jmledford3115.github.io/datascibiol/lab6_2.html" xr:uid="{D099F0DA-2B93-452F-B7AD-49FED5CE2A85}"/>
+    <hyperlink ref="B40" r:id="rId40" display="https://jmledford3115.github.io/datascibiol/lab6_2.html" xr:uid="{D099F0DA-2B93-452F-B7AD-49FED5CE2A85}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId41"/>
